--- a/formatos/formato-gastos-especificos.xlsx
+++ b/formatos/formato-gastos-especificos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\tezliksoftware\htdocs\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A67C5A3-966A-45E2-A960-9252B33766E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CF080E-BCD3-4F3A-85E0-FCE422F5CF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{199755D0-0E39-47B5-904B-1A4C66DA3543}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{199755D0-0E39-47B5-904B-1A4C66DA3543}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Monto</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -410,14 +410,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132FB206-D153-4118-A92A-2669C9917717}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
